--- a/Suppl/init phase - lifting plan.xlsx
+++ b/Suppl/init phase - lifting plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="130">
   <si>
     <t>Src</t>
   </si>
@@ -312,9 +312,6 @@
     <t>Style</t>
   </si>
   <si>
-    <t>Super-sets of three -lifts, 1 min break per set</t>
-  </si>
-  <si>
     <t>(Bodyweight Chinup)</t>
   </si>
   <si>
@@ -412,6 +409,12 @@
   </si>
   <si>
     <t>(12/7/16) r7</t>
+  </si>
+  <si>
+    <t>1 day reset every 2-4 cycles of plan</t>
+  </si>
+  <si>
+    <t>Super-sets of two-lifts</t>
   </si>
 </sst>
 </file>
@@ -822,7 +825,7 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I46"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +840,7 @@
         <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -863,7 +866,7 @@
         <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -900,7 +903,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,7 +913,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -920,7 +923,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -930,7 +933,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -940,7 +943,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -950,7 +953,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -960,7 +963,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -970,7 +973,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -980,7 +983,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1009,7 +1012,7 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1019,7 +1022,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1029,7 +1032,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1039,7 +1042,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1049,7 +1052,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1059,16 +1062,16 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
         <v>126</v>
-      </c>
-      <c r="D24" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -1078,7 +1081,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
@@ -1090,7 +1093,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -1102,7 +1105,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -1128,25 +1131,25 @@
         <v>68</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1155,7 +1158,7 @@
         <v>71</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1165,7 +1168,7 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1175,16 +1178,16 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1193,7 +1196,7 @@
         <v>66</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1202,7 +1205,7 @@
         <v>87</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E38" s="14"/>
     </row>
@@ -1218,7 +1221,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I46" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
